--- a/data/Subset1_WithDialogActs/transcript_for_ms_noonan_managing_transitions.xlsx_with_dialog_acts.xlsx
+++ b/data/Subset1_WithDialogActs/transcript_for_ms_noonan_managing_transitions.xlsx_with_dialog_acts.xlsx
@@ -1843,12 +1843,12 @@
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J37" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -2033,12 +2033,12 @@
       <c r="H42" t="inlineStr"/>
       <c r="I42" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J42" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -2147,12 +2147,12 @@
       <c r="H45" t="inlineStr"/>
       <c r="I45" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J45" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -2299,12 +2299,12 @@
       <c r="H49" t="inlineStr"/>
       <c r="I49" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J49" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -2413,12 +2413,12 @@
       <c r="H52" t="inlineStr"/>
       <c r="I52" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J52" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -2489,12 +2489,12 @@
       <c r="H54" t="inlineStr"/>
       <c r="I54" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J54" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -2717,12 +2717,12 @@
       <c r="H60" t="inlineStr"/>
       <c r="I60" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J60" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -2945,12 +2945,12 @@
       <c r="H66" t="inlineStr"/>
       <c r="I66" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J66" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -3325,12 +3325,12 @@
       <c r="H76" t="inlineStr"/>
       <c r="I76" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J76" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
